--- a/Collections/EURO/Spain/#EURO#Spain#Commemorative#[2005-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Spain/#EURO#Spain#Commemorative#[2005-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC37E493-04B3-455E-B86B-351DE5B35F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED38F3C8-220E-413A-89A1-2B743628480A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="69">
   <si>
     <t>Year</t>
   </si>
@@ -311,6 +311,12 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>200th Anniversary - National Police Corps</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
   </si>
 </sst>
 </file>
@@ -629,7 +635,23 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -732,9 +754,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1003,13 +1025,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1366,7 +1388,7 @@
         <v>29</v>
       </c>
       <c r="H13" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1584,7 +1606,7 @@
         <v>36</v>
       </c>
       <c r="H21" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="11" t="str">
         <f t="shared" ref="I21:I22" si="2">IF(OR(AND(H21&gt;1,H21&lt;&gt;"-")),"Can exchange","")</f>
@@ -1640,7 +1662,7 @@
         <v>29</v>
       </c>
       <c r="H23" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="11" t="str">
         <f t="shared" ref="I23" si="3">IF(OR(AND(H23&gt;1,H23&lt;&gt;"-")),"Can exchange","")</f>
@@ -1668,7 +1690,7 @@
         <v>29</v>
       </c>
       <c r="H24" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="11" t="str">
         <f t="shared" ref="I24" si="4">IF(OR(AND(H24&gt;1,H24&lt;&gt;"-")),"Can exchange","")</f>
@@ -1696,7 +1718,7 @@
         <v>60</v>
       </c>
       <c r="H25" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="11" t="str">
         <f t="shared" ref="I25:I27" si="5">IF(OR(AND(H25&gt;1,H25&lt;&gt;"-")),"Can exchange","")</f>
@@ -1722,7 +1744,7 @@
         <v>60</v>
       </c>
       <c r="H26" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="11" t="str">
         <f t="shared" si="5"/>
@@ -1748,7 +1770,7 @@
         <v>60</v>
       </c>
       <c r="H27" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="11" t="str">
         <f t="shared" si="5"/>
@@ -1776,7 +1798,7 @@
         <v>29</v>
       </c>
       <c r="H28" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="11" t="str">
         <f t="shared" ref="I28" si="6">IF(OR(AND(H28&gt;1,H28&lt;&gt;"-")),"Can exchange","")</f>
@@ -1802,10 +1824,60 @@
         <v>65</v>
       </c>
       <c r="H29" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="11" t="str">
         <f t="shared" ref="I29" si="7">IF(OR(AND(H29&gt;1,H29&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10">
+        <v>1</v>
+      </c>
+      <c r="I30" s="11" t="str">
+        <f t="shared" ref="I30:I31" si="8">IF(OR(AND(H30&gt;1,H30&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="10">
+        <v>1</v>
+      </c>
+      <c r="I31" s="11" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -1817,11 +1889,45 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="H3 H5 H7 H9:H24">
-    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5 H3 H7 H9:H24">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1833,12 +1939,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
+  <conditionalFormatting sqref="H8">
     <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
+  <conditionalFormatting sqref="H8">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1850,12 +1956,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
+  <conditionalFormatting sqref="H25">
     <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
+  <conditionalFormatting sqref="H25">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1867,12 +1973,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
+  <conditionalFormatting sqref="H26">
     <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
+  <conditionalFormatting sqref="H26">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1884,12 +1990,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
+  <conditionalFormatting sqref="H27">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
+  <conditionalFormatting sqref="H27">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1901,12 +2007,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
+  <conditionalFormatting sqref="H28">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
+  <conditionalFormatting sqref="H28">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1918,12 +2024,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H29">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H29">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1935,12 +2041,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
+  <conditionalFormatting sqref="H30">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1952,12 +2058,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+  <conditionalFormatting sqref="H31">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1980,7 +2086,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Collections/EURO/Spain/#EURO#Spain#Commemorative#[2005-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Spain/#EURO#Spain#Commemorative#[2005-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED38F3C8-220E-413A-89A1-2B743628480A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B35737-B963-4943-BE06-34BC22AEECB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,12 +105,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="H11" authorId="1" shapeId="0" xr:uid="{802313F4-AA17-47C4-8699-BD8384D1CFA0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Дубли не UNC
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="69">
   <si>
     <t>Year</t>
   </si>
@@ -637,6 +652,15 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -651,15 +675,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -754,9 +769,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1031,7 +1046,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1108,10 +1123,10 @@
         <v>28</v>
       </c>
       <c r="H3" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="11" t="str">
-        <f t="shared" ref="I3:I20" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="I3:I19" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1249,8 +1264,8 @@
       <c r="G8" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="10">
-        <v>0</v>
+      <c r="H8" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="I8" s="11" t="str">
         <f t="shared" ref="I8" si="1">IF(OR(AND(H8&gt;1,H8&lt;&gt;"-")),"Can exchange","")</f>
@@ -1318,11 +1333,9 @@
         <v>2012</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>41</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C11" s="8"/>
       <c r="D11" s="23" t="s">
         <v>56</v>
       </c>
@@ -1333,12 +1346,12 @@
       <c r="G11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="10">
-        <v>0</v>
+      <c r="H11" s="24">
+        <v>2</v>
       </c>
       <c r="I11" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(OR(AND(H11&gt;1,H11&lt;&gt;"-")),"Can exchange","")</f>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1346,9 +1359,11 @@
         <v>2012</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="D12" s="23" t="s">
         <v>56</v>
       </c>
@@ -1359,11 +1374,11 @@
       <c r="G12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="22">
-        <v>1</v>
+      <c r="H12" s="10">
+        <v>0</v>
       </c>
       <c r="I12" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(H12&gt;1,H12&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1564,11 +1579,9 @@
         <v>2018</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>41</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C20" s="8"/>
       <c r="D20" s="23" t="s">
         <v>56</v>
       </c>
@@ -1577,13 +1590,13 @@
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H20" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(H20&gt;1,H20&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1592,9 +1605,11 @@
         <v>2018</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="D21" s="23" t="s">
         <v>56</v>
       </c>
@@ -1603,13 +1618,13 @@
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11" t="str">
-        <f t="shared" ref="I21:I22" si="2">IF(OR(AND(H21&gt;1,H21&lt;&gt;"-")),"Can exchange","")</f>
+        <f>IF(OR(AND(H21&gt;1,H21&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1637,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I22" si="2">IF(OR(AND(H22&gt;1,H22&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1889,11 +1904,28 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="H3 H5 H7 H9:H24">
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5 H3 H7 H9:H24">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1905,12 +1937,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
+  <conditionalFormatting sqref="H6">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1922,13 +1954,115 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="colorScale" priority="18">
+  <conditionalFormatting sqref="H25">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1940,130 +2074,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Spain/#EURO#Spain#Commemorative#[2005-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Spain/#EURO#Spain#Commemorative#[2005-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B35737-B963-4943-BE06-34BC22AEECB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1929798-2062-4836-B5B3-87FE21CA0290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="73">
   <si>
     <t>Year</t>
   </si>
@@ -139,12 +139,6 @@
     <t>2€</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -280,18 +274,12 @@
     <t xml:space="preserve"> Cave of Altamira</t>
   </si>
   <si>
-    <t>Subtype_3</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
     <t>Obv: Large stars</t>
   </si>
   <si>
-    <t>Obv: Normal stars</t>
-  </si>
-  <si>
     <t>Subtype_4</t>
   </si>
   <si>
@@ -332,6 +320,30 @@
   </si>
   <si>
     <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Subtype_1#Series</t>
+  </si>
+  <si>
+    <t>Subtype_2#Mint_Symbol</t>
+  </si>
+  <si>
+    <t>Subtype_3#Map_of_Europe</t>
+  </si>
+  <si>
+    <t>Treaty of Rome</t>
+  </si>
+  <si>
+    <t>10 Years of EMU</t>
+  </si>
+  <si>
+    <t>10th Anniversary - Euro Coins and Banknotes</t>
+  </si>
+  <si>
+    <t>European Union flag</t>
+  </si>
+  <si>
+    <t>Erasmus Programme</t>
   </si>
 </sst>
 </file>
@@ -405,6 +417,8 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1046,7 +1060,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1065,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>1</v>
@@ -1085,22 +1099,22 @@
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I2" s="3"/>
     </row>
@@ -1109,18 +1123,18 @@
         <v>2005</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H3" s="10">
         <v>1</v>
@@ -1135,25 +1149,25 @@
         <v>2006</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I4" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1165,18 +1179,20 @@
         <v>2007</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>68</v>
+      </c>
       <c r="D5" s="23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H5" s="22">
         <v>2</v>
@@ -1191,25 +1207,25 @@
         <v>2008</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I6" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1221,20 +1237,20 @@
         <v>2009</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>69</v>
+      </c>
       <c r="D7" s="23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>54</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F7" s="8"/>
       <c r="G7" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H7" s="22">
         <v>2</v>
@@ -1249,23 +1265,25 @@
         <v>2009</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>69</v>
+      </c>
       <c r="D8" s="23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I8" s="11" t="str">
         <f t="shared" ref="I8" si="1">IF(OR(AND(H8&gt;1,H8&lt;&gt;"-")),"Can exchange","")</f>
@@ -1277,20 +1295,20 @@
         <v>2010</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H9" s="24">
         <v>2</v>
@@ -1305,20 +1323,20 @@
         <v>2011</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H10" s="24">
         <v>2</v>
@@ -1333,18 +1351,20 @@
         <v>2012</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>7</v>
+      </c>
       <c r="D11" s="23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H11" s="24">
         <v>2</v>
@@ -1359,20 +1379,20 @@
         <v>2012</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H12" s="10">
         <v>0</v>
@@ -1387,20 +1407,20 @@
         <v>2013</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H13" s="10">
         <v>1</v>
@@ -1415,20 +1435,20 @@
         <v>2014</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H14" s="10">
         <v>1</v>
@@ -1443,18 +1463,18 @@
         <v>2014</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="10">
         <v>1</v>
@@ -1469,20 +1489,20 @@
         <v>2015</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H16" s="10">
         <v>1</v>
@@ -1497,18 +1517,20 @@
         <v>2015</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>71</v>
+      </c>
       <c r="D17" s="23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H17" s="10">
         <v>1</v>
@@ -1523,20 +1545,20 @@
         <v>2016</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H18" s="10">
         <v>1</v>
@@ -1551,20 +1573,20 @@
         <v>2017</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H19" s="10">
         <v>1</v>
@@ -1579,18 +1601,18 @@
         <v>2018</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H20" s="10">
         <v>1</v>
@@ -1605,20 +1627,20 @@
         <v>2018</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H21" s="10">
         <v>0</v>
@@ -1633,20 +1655,20 @@
         <v>2019</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H22" s="10">
         <v>1</v>
@@ -1661,20 +1683,20 @@
         <v>2020</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H23" s="10">
         <v>1</v>
@@ -1689,20 +1711,20 @@
         <v>2021</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H24" s="10">
         <v>1</v>
@@ -1717,20 +1739,20 @@
         <v>2022</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H25" s="10">
         <v>1</v>
@@ -1745,18 +1767,18 @@
         <v>2022</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H26" s="10">
         <v>1</v>
@@ -1771,18 +1793,20 @@
         <v>2022</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="8"/>
+        <v>58</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>72</v>
+      </c>
       <c r="D27" s="23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H27" s="10">
         <v>1</v>
@@ -1797,20 +1821,20 @@
         <v>2023</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H28" s="10">
         <v>1</v>
@@ -1825,18 +1849,18 @@
         <v>2023</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H29" s="10">
         <v>1</v>
@@ -1851,14 +1875,14 @@
         <v>2024</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="9"/>
@@ -1875,16 +1899,16 @@
         <v>2024</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="9"/>
@@ -2113,13 +2137,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2127,10 +2151,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2138,10 +2162,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2149,10 +2173,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2160,10 +2184,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2171,10 +2195,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2182,10 +2206,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Spain/#EURO#Spain#Commemorative#[2005-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Spain/#EURO#Spain#Commemorative#[2005-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1929798-2062-4836-B5B3-87FE21CA0290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907FBDB5-22BA-401D-A89D-B9E902DE9D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4900" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="73">
   <si>
     <t>Year</t>
   </si>
@@ -1060,7 +1060,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1885,7 +1885,9 @@
         <v>21</v>
       </c>
       <c r="F30" s="8"/>
-      <c r="G30" s="9"/>
+      <c r="G30" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="H30" s="10">
         <v>1</v>
       </c>
@@ -1911,7 +1913,9 @@
         <v>21</v>
       </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="9"/>
+      <c r="G31" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="H31" s="10">
         <v>1</v>
       </c>
@@ -1932,7 +1936,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5 H3 H7 H9:H24">
+  <conditionalFormatting sqref="H3 H5 H7 H9:H24">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Spain/#EURO#Spain#Commemorative#[2005-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Spain/#EURO#Spain#Commemorative#[2005-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907FBDB5-22BA-401D-A89D-B9E902DE9D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D95C4F7-E862-4513-A888-B2AEA46264C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -75,6 +75,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="H5" authorId="1" shapeId="0" xr:uid="{B8248764-F3A2-487F-A7B3-39E1FE4C2FA5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">1 Дубль UNC
+1 Дубль не UNC
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="1" shapeId="0" xr:uid="{53271EEB-052A-4CE3-8B55-193AF8AB13A0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Дубли не UNC
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H9" authorId="1" shapeId="0" xr:uid="{E02419AA-DA3C-4E47-9149-1C098BD204CF}">
       <text>
         <r>
@@ -350,7 +381,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -403,13 +434,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -574,7 +598,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -630,9 +654,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1060,7 +1081,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1075,18 +1096,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1096,8 +1117,8 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="4" t="s">
         <v>65</v>
       </c>
@@ -1126,7 +1147,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -1137,7 +1158,7 @@
         <v>26</v>
       </c>
       <c r="H3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="11" t="str">
         <f t="shared" ref="I3:I19" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
@@ -1181,10 +1202,10 @@
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -1194,8 +1215,8 @@
       <c r="G5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="22">
-        <v>2</v>
+      <c r="H5" s="23">
+        <v>3</v>
       </c>
       <c r="I5" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1239,10 +1260,10 @@
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -1252,8 +1273,8 @@
       <c r="G7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="22">
-        <v>2</v>
+      <c r="H7" s="23">
+        <v>3</v>
       </c>
       <c r="I7" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1267,10 +1288,10 @@
       <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -1300,7 +1321,7 @@
       <c r="C9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -1310,7 +1331,7 @@
       <c r="G9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="23">
         <v>2</v>
       </c>
       <c r="I9" s="11" t="str">
@@ -1328,7 +1349,7 @@
       <c r="C10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -1338,7 +1359,7 @@
       <c r="G10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="23">
         <v>2</v>
       </c>
       <c r="I10" s="11" t="str">
@@ -1353,10 +1374,10 @@
       <c r="B11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -1366,7 +1387,7 @@
       <c r="G11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="23">
         <v>2</v>
       </c>
       <c r="I11" s="11" t="str">
@@ -1384,7 +1405,7 @@
       <c r="C12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -1395,7 +1416,7 @@
         <v>27</v>
       </c>
       <c r="H12" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="11" t="str">
         <f>IF(OR(AND(H12&gt;1,H12&lt;&gt;"-")),"Can exchange","")</f>
@@ -1412,7 +1433,7 @@
       <c r="C13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -1440,7 +1461,7 @@
       <c r="C14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -1466,7 +1487,7 @@
         <v>36</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -1494,7 +1515,7 @@
       <c r="C16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -1519,10 +1540,10 @@
       <c r="B17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -1550,7 +1571,7 @@
       <c r="C18" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -1578,7 +1599,7 @@
       <c r="C19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E19" s="8" t="s">
@@ -1604,7 +1625,7 @@
         <v>37</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -1615,11 +1636,11 @@
         <v>34</v>
       </c>
       <c r="H20" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="11" t="str">
         <f>IF(OR(AND(H20&gt;1,H20&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1632,7 +1653,7 @@
       <c r="C21" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E21" s="8" t="s">
@@ -1660,7 +1681,7 @@
       <c r="C22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -1688,7 +1709,7 @@
       <c r="C23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E23" s="8" t="s">
@@ -1716,7 +1737,7 @@
       <c r="C24" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E24" s="8" t="s">
@@ -1744,7 +1765,7 @@
       <c r="C25" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E25" s="8" t="s">
@@ -1770,7 +1791,7 @@
         <v>57</v>
       </c>
       <c r="C26" s="8"/>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -1795,10 +1816,10 @@
       <c r="B27" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E27" s="8" t="s">
@@ -1826,7 +1847,7 @@
       <c r="C28" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E28" s="8" t="s">
@@ -1852,7 +1873,7 @@
         <v>60</v>
       </c>
       <c r="C29" s="8"/>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E29" s="8" t="s">
@@ -1878,7 +1899,7 @@
         <v>63</v>
       </c>
       <c r="C30" s="8"/>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E30" s="8" t="s">
@@ -1906,7 +1927,7 @@
       <c r="C31" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E31" s="8" t="s">
@@ -1930,13 +1951,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="H3 H5 H7 H9:H24">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="H3 H9:H24 H5 H7">
     <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3 H5 H7 H9:H24">
+  <conditionalFormatting sqref="H9:H24 H3 H5 H7">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Spain/#EURO#Spain#Commemorative#[2005-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Spain/#EURO#Spain#Commemorative#[2005-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D95C4F7-E862-4513-A888-B2AEA46264C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3CE5E9-7807-4A07-B08C-0E4CCA90A70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1081,7 +1081,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1158,7 +1158,7 @@
         <v>26</v>
       </c>
       <c r="H3" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="11" t="str">
         <f t="shared" ref="I3:I19" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
@@ -1664,7 +1664,7 @@
         <v>33</v>
       </c>
       <c r="H21" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="11" t="str">
         <f>IF(OR(AND(H21&gt;1,H21&lt;&gt;"-")),"Can exchange","")</f>

--- a/Collections/EURO/Spain/#EURO#Spain#Commemorative#[2005-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Spain/#EURO#Spain#Commemorative#[2005-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3CE5E9-7807-4A07-B08C-0E4CCA90A70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CD4B61-AE0A-4BD9-96FE-8E143FFA02D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="2050" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -1081,7 +1081,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1274,7 +1274,7 @@
         <v>26</v>
       </c>
       <c r="H7" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" s="11" t="str">
         <f t="shared" si="0"/>

--- a/Collections/EURO/Spain/#EURO#Spain#Commemorative#[2005-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Spain/#EURO#Spain#Commemorative#[2005-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CD4B61-AE0A-4BD9-96FE-8E143FFA02D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15B6585-F089-48A9-875E-071E27C7A372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="2050" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="75">
   <si>
     <t>Year</t>
   </si>
@@ -375,6 +375,12 @@
   </si>
   <si>
     <t>Erasmus Programme</t>
+  </si>
+  <si>
+    <t>Old Town of Salamanca</t>
+  </si>
+  <si>
+    <t>2.000.000</t>
   </si>
 </sst>
 </file>
@@ -685,7 +691,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -804,9 +818,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1075,13 +1089,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1945,6 +1959,34 @@
         <v/>
       </c>
     </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H32" s="10">
+        <v>1</v>
+      </c>
+      <c r="I32" s="11" t="str">
+        <f t="shared" ref="I32" si="9">IF(OR(AND(H32&gt;1,H32&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
@@ -1953,11 +1995,28 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="H3 H9:H24 H5 H7">
-    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H24 H3 H5 H7">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1969,12 +2028,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
+  <conditionalFormatting sqref="H6">
     <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
+  <conditionalFormatting sqref="H6">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1986,13 +2045,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="colorScale" priority="20">
+  <conditionalFormatting sqref="H25">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2003,12 +2062,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
+  <conditionalFormatting sqref="H26">
     <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
+  <conditionalFormatting sqref="H26">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2020,12 +2079,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
+  <conditionalFormatting sqref="H27">
     <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
+  <conditionalFormatting sqref="H27">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2037,12 +2096,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H28">
     <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H28">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2054,12 +2113,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
+  <conditionalFormatting sqref="H29">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
+  <conditionalFormatting sqref="H29">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2071,12 +2130,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+  <conditionalFormatting sqref="H30">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+  <conditionalFormatting sqref="H30">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2088,12 +2147,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
+  <conditionalFormatting sqref="H31">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
+  <conditionalFormatting sqref="H31">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2105,12 +2164,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
+  <conditionalFormatting sqref="H8">
     <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
+  <conditionalFormatting sqref="H8">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2122,12 +2181,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
+  <conditionalFormatting sqref="H32">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Spain/#EURO#Spain#Commemorative#[2005-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Spain/#EURO#Spain#Commemorative#[2005-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15B6585-F089-48A9-875E-071E27C7A372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD268A6-17AF-48BF-91E4-41EA3BFF7331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2€'!$B$2:$G$32</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -311,9 +314,6 @@
     <t>Obv: Large stars</t>
   </si>
   <si>
-    <t>Subtype_4</t>
-  </si>
-  <si>
     <t>Obv: With mint logo - "M"</t>
   </si>
   <si>
@@ -356,9 +356,6 @@
     <t>Subtype_1#Series</t>
   </si>
   <si>
-    <t>Subtype_2#Mint_Symbol</t>
-  </si>
-  <si>
     <t>Subtype_3#Map_of_Europe</t>
   </si>
   <si>
@@ -381,6 +378,12 @@
   </si>
   <si>
     <t>2.000.000</t>
+  </si>
+  <si>
+    <t>Subtype_4#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_marks_1</t>
   </si>
 </sst>
 </file>
@@ -604,7 +607,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -666,6 +669,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -693,14 +699,6 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -708,6 +706,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -818,9 +824,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1095,33 +1101,31 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="48.54296875" style="13" customWidth="1"/>
-    <col min="3" max="6" width="24.81640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="3.81640625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="13" customWidth="1"/>
+    <col min="3" max="6" width="33.6328125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="3.6328125" style="13" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="13" customWidth="1"/>
     <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="29"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1131,19 +1135,21 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="24" t="s">
+        <v>61</v>
+      </c>
       <c r="C2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>25</v>
@@ -1162,7 +1168,7 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>20</v>
@@ -1217,10 +1223,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>21</v>
@@ -1275,10 +1281,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>21</v>
@@ -1303,10 +1309,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>21</v>
@@ -1336,7 +1342,7 @@
         <v>39</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>21</v>
@@ -1364,7 +1370,7 @@
         <v>39</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>21</v>
@@ -1386,13 +1392,13 @@
         <v>2012</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>21</v>
@@ -1420,7 +1426,7 @@
         <v>39</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>21</v>
@@ -1448,7 +1454,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>21</v>
@@ -1476,7 +1482,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>21</v>
@@ -1502,7 +1508,7 @@
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>21</v>
@@ -1530,7 +1536,7 @@
         <v>39</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>21</v>
@@ -1555,10 +1561,10 @@
         <v>8</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>21</v>
@@ -1586,7 +1592,7 @@
         <v>39</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>21</v>
@@ -1614,7 +1620,7 @@
         <v>39</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>21</v>
@@ -1640,7 +1646,7 @@
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>21</v>
@@ -1668,7 +1674,7 @@
         <v>39</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>21</v>
@@ -1696,7 +1702,7 @@
         <v>39</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>21</v>
@@ -1718,13 +1724,13 @@
         <v>2020</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>21</v>
@@ -1746,13 +1752,13 @@
         <v>2021</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>21</v>
@@ -1774,20 +1780,20 @@
         <v>2022</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H25" s="10">
         <v>1</v>
@@ -1802,18 +1808,18 @@
         <v>2022</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H26" s="10">
         <v>1</v>
@@ -1828,20 +1834,20 @@
         <v>2022</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H27" s="10">
         <v>1</v>
@@ -1856,13 +1862,13 @@
         <v>2023</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>21</v>
@@ -1884,18 +1890,18 @@
         <v>2023</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H29" s="10">
         <v>1</v>
@@ -1910,18 +1916,18 @@
         <v>2024</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H30" s="10">
         <v>1</v>
@@ -1936,20 +1942,20 @@
         <v>2024</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H31" s="10">
         <v>1</v>
@@ -1964,20 +1970,20 @@
         <v>2025</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H32" s="10">
         <v>1</v>
@@ -1988,9 +1994,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:G32" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -2182,7 +2188,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
